--- a/results_excel/webm.xlsx
+++ b/results_excel/webm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,61 +452,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[[900.0, 60.0], [1019.0, 60.0], [1019.0, 73.0], [900.0, 73.0]], [[84.0, 78.0], [147.0, 78.0], [147.0, 91.0], [84.0, 91.0]], [[56.0, 107.0], [181.0, 107.0], [181.0, 120.0], [56.0, 120.0]], [[59.0, 120.0], [175.0, 122.0], [175.0, 136.0], [59.0, 135.0]], [[56.0, 138.0], [183.0, 138.0], [183.0, 151.0], [56.0, 151.0]], [[17.0, 152.0], [31.0, 152.0], [31.0, 163.0], [17.0, 163.0]], [[61.0, 167.0], [147.0, 167.0], [147.0, 180.0], [61.0, 180.0]], [[17.0, 196.0], [32.0, 196.0], [32.0, 208.0], [17.0, 208.0]], [[56.0, 195.0], [167.0, 195.0], [167.0, 208.0], [56.0, 208.0]], [[161.0, 195.0], [240.0, 195.0], [240.0, 208.0], [161.0, 208.0]], [[80.0, 209.0], [435.0, 209.0], [435.0, 226.0], [80.0, 226.0]], [[84.0, 228.0], [115.0, 228.0], [115.0, 237.0], [84.0, 237.0]], [[19.0, 242.0], [28.0, 240.0], [30.0, 248.0], [21.0, 250.0]], [[20.0, 255.0], [31.0, 255.0], [31.0, 267.0], [20.0, 267.0]], [[63.0, 253.0], [179.0, 253.0], [179.0, 266.0], [63.0, 266.0]], [[173.0, 254.0], [371.0, 254.0], [371.0, 267.0], [173.0, 267.0]], [[19.0, 285.0], [31.0, 285.0], [31.0, 295.0], [19.0, 295.0]], [[25.0, 296.0], [33.0, 302.0], [24.0, 313.0], [17.0, 307.0]], [[104.0, 298.0], [197.0, 298.0], [197.0, 311.0], [104.0, 311.0]], [[20.0, 315.0], [31.0, 315.0], [31.0, 327.0], [20.0, 327.0]], [[124.0, 312.0], [292.0, 311.0], [292.0, 326.0], [124.0, 327.0]], [[20.0, 326.0], [31.0, 326.0], [31.0, 341.0], [20.0, 341.0]], [[16.0, 345.0], [29.0, 340.0], [33.0, 351.0], [21.0, 356.0]], [[127.0, 341.0], [372.0, 341.0], [372.0, 355.0], [127.0, 355.0]], [[392.0, 344.0], [481.0, 344.0], [481.0, 353.0], [392.0, 353.0]], [[25.0, 356.0], [32.0, 362.0], [26.0, 371.0], [18.0, 365.0]], [[127.0, 357.0], [333.0, 357.0], [333.0, 371.0], [127.0, 371.0]], [[348.0, 357.0], [445.0, 356.0], [445.0, 371.0], [348.0, 372.0]], [[17.0, 372.0], [31.0, 372.0], [31.0, 384.0], [17.0, 384.0]], [[61.0, 372.0], [328.0, 372.0], [328.0, 385.0], [61.0, 385.0]], [[20.0, 390.0], [28.0, 387.0], [30.0, 394.0], [21.0, 396.0]], [[63.0, 389.0], [92.0, 389.0], [92.0, 398.0], [63.0, 398.0]], [[21.0, 402.0], [31.0, 402.0], [31.0, 412.0], [21.0, 412.0]], [[23.0, 415.0], [31.0, 418.0], [26.0, 427.0], [19.0, 424.0]], [[20.0, 430.0], [31.0, 430.0], [31.0, 443.0], [20.0, 443.0]], [[105.0, 445.0], [297.0, 445.0], [297.0, 458.0], [105.0, 458.0]], [[19.0, 462.0], [29.0, 458.0], [33.0, 467.0], [24.0, 472.0]], [[105.0, 459.0], [241.0, 459.0], [241.0, 472.0], [105.0, 472.0]], [[240.0, 459.0], [301.0, 459.0], [301.0, 472.0], [240.0, 472.0]], [[19.0, 474.0], [31.0, 474.0], [31.0, 486.0], [19.0, 486.0]], [[131.0, 472.0], [235.0, 472.0], [235.0, 486.0], [131.0, 486.0]], [[128.0, 488.0], [255.0, 487.0], [255.0, 502.0], [128.0, 503.0]], [[20.0, 503.0], [31.0, 503.0], [31.0, 515.0], [20.0, 515.0]], [[20.0, 518.0], [31.0, 518.0], [31.0, 529.0], [20.0, 529.0]], [[60.0, 516.0], [203.0, 516.0], [203.0, 533.0], [60.0, 533.0]], [[63.0, 535.0], [103.0, 535.0], [103.0, 544.0], [63.0, 544.0]], [[21.0, 551.0], [29.0, 551.0], [29.0, 557.0], [21.0, 557.0]], [[61.0, 548.0], [233.0, 548.0], [233.0, 561.0], [61.0, 561.0]], [[61.0, 562.0], [221.0, 562.0], [221.0, 576.0], [61.0, 576.0]], [[61.0, 576.0], [163.0, 576.0], [163.0, 589.0], [61.0, 589.0]], [[168.0, 577.0], [355.0, 577.0], [355.0, 590.0], [168.0, 590.0]], [[60.0, 592.0], [259.0, 592.0], [259.0, 605.0], [60.0, 605.0]], [[63.0, 609.0], [92.0, 609.0], [92.0, 618.0], [63.0, 618.0]], [[105.0, 621.0], [360.0, 621.0], [360.0, 634.0], [105.0, 634.0]], [[131.0, 638.0], [225.0, 638.0], [225.0, 647.0], [131.0, 647.0]], [[117.0, 654.0], [141.0, 654.0], [141.0, 663.0], [117.0, 663.0]], [[157.0, 652.0], [188.0, 652.0], [188.0, 662.0], [157.0, 662.0]], [[20.0, 667.0], [41.0, 667.0], [41.0, 676.0], [20.0, 676.0]], [[139.0, 668.0], [172.0, 668.0], [172.0, 678.0], [139.0, 678.0]], [[187.0, 668.0], [252.0, 668.0], [252.0, 678.0], [187.0, 678.0]], [[1213.0, 682.0], [1249.0, 682.0], [1249.0, 691.0], [1213.0, 691.0]], [[37.0, 697.0], [145.0, 699.0], [145.0, 713.0], [37.0, 712.0]], [[1167.0, 701.0], [1196.0, 701.0], [1196.0, 711.0], [1167.0, 711.0]]]</t>
+          <t>[[8, 4, 19, 4, 19, 14, 8, 14], [27, 5, 94, 5, 94, 15, 27, 15], [135, 6, 157, 6, 157, 14, 135, 14], [95, 7, 132, 7, 132, 14, 95, 14], [201, 6, 218, 6, 218, 14, 201, 14], [162, 7, 194, 7, 194, 14, 162, 14], [220, 6, 243, 6, 243, 14, 220, 14], [266, 5, 299, 5, 299, 15, 266, 15], [305, 5, 325, 5, 325, 16, 305, 16], [4, 22, 74, 24, 73, 35, 3, 33], [102, 24, 148, 24, 148, 34, 102, 34], [76, 26, 104, 26, 104, 33, 76, 33], [954, 25, 994, 25, 994, 32, 954, 32], [18, 38, 74, 41, 73, 55, 17, 52], [156, 43, 168, 43, 168, 51, 156, 51], [165, 43, 250, 43, 250, 53, 165, 53], [482, 45, 561, 45, 561, 52, 482, 52], [710, 43, 759, 43, 759, 53, 710, 53], [2, 44, 13, 44, 13, 79, 2, 79], [19, 61, 94, 61, 94, 72, 19, 72], [16, 79, 33, 79, 33, 91, 16, 91], [82, 80, 148, 80, 148, 90, 82, 90], [1198, 79, 1242, 79, 1242, 89, 1198, 89], [54, 99, 62, 90, 70, 98, 61, 107], [19, 93, 34, 93, 34, 107, 19, 107], [3, 89, 14, 89, 14, 121, 3, 121], [15, 107, 34, 107, 34, 122, 15, 122], [53, 108, 184, 108, 184, 120, 53, 120], [0, 120, 8, 116, 14, 126, 4, 131], [59, 122, 175, 122, 175, 135, 59, 135], [18, 123, 32, 123, 32, 136, 18, 136], [53, 134, 184, 137, 183, 151, 52, 148], [18, 138, 32, 138, 32, 151, 18, 151], [24, 148, 34, 158, 24, 167, 15, 158], [60, 165, 147, 167, 146, 178, 59, 176], [18, 166, 32, 166, 32, 180, 18, 180], [18, 181, 32, 181, 32, 195, 18, 195], [17, 195, 33, 195, 33, 207, 17, 207], [53, 193, 159, 195, 158, 208, 52, 206], [165, 197, 240, 197, 240, 208, 165, 208], [23, 206, 33, 216, 23, 226, 14, 216], [79, 208, 434, 210, 433, 223, 78, 221], [82, 226, 118, 226, 118, 236, 82, 236], [18, 225, 33, 225, 33, 239, 18, 239], [14, 242, 27, 235, 34, 248, 20, 255], [55, 247, 62, 237, 69, 243, 61, 252], [13, 258, 27, 249, 35, 261, 20, 270], [56, 255, 168, 253, 169, 264, 57, 266], [206, 254, 370, 252, 371, 265, 207, 267], [175, 256, 209, 256, 209, 266, 175, 266], [53, 266, 446, 268, 445, 282, 52, 280], [19, 269, 31, 269, 31, 286, 19, 286], [24, 280, 34, 290, 24, 299, 15, 290], [16, 298, 29, 295, 33, 310, 20, 314], [102, 297, 199, 297, 199, 310, 102, 310], [18, 314, 31, 314, 31, 326, 18, 326], [125, 315, 289, 315, 289, 325, 125, 325], [20, 322, 36, 330, 29, 343, 13, 336], [17, 342, 33, 342, 33, 355, 17, 355], [125, 342, 369, 342, 369, 352, 125, 352], [390, 342, 484, 342, 484, 355, 390, 355], [17, 357, 34, 357, 34, 370, 17, 370], [123, 355, 333, 357, 332, 370, 122, 368], [351, 356, 444, 356, 444, 369, 351, 369], [15, 373, 29, 370, 32, 382, 18, 385], [59, 371, 329, 373, 328, 383, 58, 382], [18, 385, 31, 385, 31, 399, 18, 399], [60, 387, 96, 387, 96, 397, 60, 397], [17, 401, 31, 401, 31, 414, 17, 414], [18, 416, 31, 416, 31, 428, 18, 428], [18, 431, 32, 431, 32, 443, 18, 443], [17, 445, 34, 445, 34, 458, 17, 458], [102, 445, 299, 445, 299, 458, 102, 458], [16, 460, 33, 460, 33, 472, 16, 472], [104, 461, 300, 461, 300, 471, 104, 471], [17, 474, 33, 474, 33, 486, 17, 486], [127, 473, 233, 473, 233, 486, 127, 486], [17, 489, 32, 489, 32, 501, 17, 501], [126, 491, 253, 488, 254, 498, 127, 501], [18, 504, 32, 504, 32, 516, 18, 516], [104, 503, 115, 509, 111, 516, 101, 511], [17, 518, 33, 518, 33, 530, 17, 530], [60, 519, 200, 519, 200, 529, 60, 529], [16, 533, 34, 533, 34, 545, 16, 545], [60, 534, 107, 534, 107, 545, 60, 545], [16, 548, 33, 548, 33, 560, 16, 560], [60, 548, 232, 548, 232, 561, 60, 561], [17, 562, 33, 562, 33, 575, 17, 575], [60, 562, 221, 562, 221, 575, 60, 575], [13, 578, 34, 578, 34, 589, 13, 589], [60, 577, 351, 577, 351, 587, 60, 587], [19, 594, 32, 594, 32, 602, 19, 602], [57, 591, 259, 589, 260, 603, 58, 605], [19, 608, 33, 608, 33, 618, 19, 618], [60, 608, 96, 608, 96, 617, 60, 617], [17, 621, 34, 621, 34, 634, 17, 634], [104, 621, 178, 621, 178, 632, 104, 632], [177, 622, 348, 622, 348, 632, 177, 632], [344, 621, 399, 621, 399, 631, 344, 631], [17, 636, 33, 636, 33, 647, 17, 647], [125, 637, 226, 637, 226, 647, 125, 647], [19, 652, 68, 652, 68, 661, 19, 661], [151, 651, 220, 652, 219, 663, 150, 661], [81, 653, 144, 653, 144, 663, 81, 663], [17, 665, 45, 668, 44, 679, 16, 676], [53, 668, 127, 668, 127, 678, 53, 678], [264, 665, 310, 668, 309, 678, 263, 675], [135, 668, 174, 668, 174, 678, 135, 678], [184, 668, 252, 668, 252, 678, 184, 678], [321, 667, 365, 667, 365, 677, 321, 677], [376, 668, 417, 668, 417, 678, 376, 678], [7, 682, 17, 682, 17, 690, 7, 690], [23, 680, 657, 680, 657, 693, 23, 693], [860, 680, 1260, 680, 1260, 693, 860, 693], [9, 699, 21, 699, 21, 712, 9, 712], [55, 700, 144, 700, 144, 713, 55, 713], [234, 699, 247, 699, 247, 712, 234, 712], [1205, 695, 1232, 691, 1234, 701, 1207, 705], [1151, 699, 1197, 699, 1197, 710, 1151, 710], [1250, 698, 1264, 698, 1264, 712, 1250, 712], [1199, 705, 1243, 705, 1243, 715, 1199, 715]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['+T', 'return false', "// console.Log'event", '//console.Log(event)', "// console.Log'event')", '716', 'videoTag.play();', '719', 'if TextEncoder"', 'in window)){', 'console.error("Sorry, this bromser does not support TextEncoder)', 'return', '72', '723', 'const enc:TextEncoder', '=new TextEncoder// aLways utf-8', '725', '2', 'if (event.data{', '27', '//console.Log(atob(event.data)', '728', '729', '//Let videoData =enc.encode(atob(event.data))', '//.arrayBuffer', 'SE', 'Let videoData : string = atob(event.data)', '/.arrayBuffer)', '731', 'videoSourceBuffer.appendBuffer(atob(event.data) );', 'R', 'returr', '33', '3', '735', '// prepend header to blob video data', '32', 'const bLobsCombined:Blob', '=new BLob', '738', 'blobParts [videoData],', 'options {type:mimeCodec}', '748', '741', 'console.Log(bLobsConbined)', '/returr', '4', "console.Log('videoSourceBuffer')", 'console.Log(videoSourceBuffer)', 'Let buff :ArrayBuffer', '=await blobsConbined.arrayBuffer()', 'videoSourceBuffer.appendBuffer(buff);', 'returr', 'bLobscombined.arrayBuffer().then(async strean:A', 'onsole.Log(stream)', 'ous&gt; ()', 'onMedia', 'Git', ' TODO', ' Python Console', 'mas', 'Type here to search', '40']</t>
+          <t>[['图'], ['Eile Edit Yiew'], ['Code'], ['Niavigabe'], ['Run'], ['Belactor'], ['Iools'], ['Window'], ['Help'], ['screen-recording'], ['assets js'], ['waw'], ['Current File'], ['aindexphp'], ['2'], ['agenb-web-eventsphp'], ['admin-Lab-agents.php'], ['io metajson'], ['!'], ['Q- ferappendBuffe'], ['711'], ['return false'], ['30A49'], [''], ['712'], ['1'], ['713'], ['Q// console.logC"event\')'], ['o'], ['// console.log(event)'], ['714'], ["e// console.log('event')"], ['715'], ['3'], ['videoTag.playO;'], ['717'], ['718'], ['719'], ['eif (!("TextEncoder'], ['in window)) {'], [''], ['console.error("Sorry, this bromser does not support TextEncoder");'], ['return'], ['721'], ['心'], [''], ['心'], ['const enc :TexlEncoder'], ['TextEncoder(); // always utf-8'], ['= new'], ['e//console.log(enc.encode("This is a string converted to a Uint8Array"));'], ['724'], ['3'], ['726'], ['if (event.data) {'], ['727'], ['//console.log(atob(event.data))'], ['12%'], ['729'], ['//let videoData = enc.encode(atob(event.data))'], ['// .arrayBuffer()'], ['730'], ['let videoData :string = atob(event.data)'], ['// .arrayBuffer()'], ['731'], ['videoSourceBuffer.appendBuffer(atob(event.data));'], ['752'], ['return'], ['733'], ['734'], ['735'], ['736'], ['// prepend header to blob video data'], ['737'], ['const blobsCombined :Blob s new Blob('], ['738'], ['blcbPans[videoData],'], ['739'], ['options: {type: nimeCodecl'], ['740'], ['Y'], ['741'], ['console.log(blobsCombined)'], ['742'], ['//return'], ['743'], ["console.logC'videoSourceBuffer')"], ['744'], ['console.log(videoSourceBuffer)'], ['745'], ['let buff :ArrayBuffer w await blobsCombined.arrayBuffer()'], ['746'], ['videoSourceBuffer.appendBuffer(buff);'], ['747'], ['return'], ['748'], ['biobsCombined.'], ['arrayBuffer().then(async strean'], [':ArrayBuffer'], ['749'], ['console.log(stream)'], ['DemoAdmin'], ['onMediaStreamO'], ['canonymous&gt;0'], ['p Git'], ['寒 Python Fackages'], ['O Probiems'], ['描TODO'], ['● Python Console'], ['店 Terminal'], ['OServices'], ['口'], ['Code Vion ints eyalurionislown Disahing Code Vion ints may inpeove prformance byreducing CPUload.// Canfgure. Dhabt hints//Dont showagain (toduy 1634)'], ['719:19 (11 chars) CRLF UTF-8 4spaces Python 3.9.1 WSL. (Ubuntu.cording/.very/bin/python) P master'], [''], ['Type here to search'], [''], ['17.:20'], ['入伊40'], ['早'], ['28/04/2024']]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[[899.0, 58.0], [1019.0, 60.0], [1019.0, 73.0], [899.0, 71.0]], [[84.0, 78.0], [147.0, 78.0], [147.0, 91.0], [84.0, 91.0]], [[56.0, 107.0], [181.0, 107.0], [181.0, 120.0], [56.0, 120.0]], [[57.0, 120.0], [175.0, 122.0], [175.0, 136.0], [57.0, 135.0]], [[56.0, 138.0], [183.0, 138.0], [183.0, 151.0], [56.0, 151.0]], [[17.0, 152.0], [31.0, 152.0], [31.0, 163.0], [17.0, 163.0]], [[61.0, 167.0], [147.0, 167.0], [147.0, 180.0], [61.0, 180.0]], [[17.0, 196.0], [32.0, 196.0], [32.0, 208.0], [17.0, 208.0]], [[57.0, 195.0], [165.0, 195.0], [165.0, 208.0], [57.0, 208.0]], [[161.0, 195.0], [240.0, 195.0], [240.0, 208.0], [161.0, 208.0]], [[25.0, 208.0], [19.0, 214.0], [32.0, 216.0], [26.0, 222.0]], [[80.0, 209.0], [435.0, 209.0], [435.0, 226.0], [80.0, 226.0]], [[19.0, 226.0], [32.0, 226.0], [32.0, 237.0], [19.0, 237.0]], [[85.0, 228.0], [115.0, 228.0], [115.0, 237.0], [85.0, 237.0]], [[63.0, 253.0], [179.0, 253.0], [179.0, 266.0], [63.0, 266.0]], [[173.0, 254.0], [371.0, 254.0], [371.0, 267.0], [173.0, 267.0]], [[56.0, 270.0], [445.0, 270.0], [445.0, 283.0], [56.0, 283.0]], [[21.0, 286.0], [31.0, 286.0], [31.0, 295.0], [21.0, 295.0]], [[20.0, 299.0], [31.0, 299.0], [31.0, 311.0], [20.0, 311.0]], [[104.0, 298.0], [197.0, 298.0], [197.0, 311.0], [104.0, 311.0]], [[20.0, 315.0], [31.0, 315.0], [31.0, 327.0], [20.0, 327.0]], [[124.0, 312.0], [292.0, 311.0], [292.0, 326.0], [124.0, 327.0]], [[20.0, 326.0], [31.0, 326.0], [31.0, 341.0], [20.0, 341.0]], [[19.0, 341.0], [31.0, 341.0], [31.0, 353.0], [19.0, 353.0]], [[127.0, 341.0], [372.0, 341.0], [372.0, 355.0], [127.0, 355.0]], [[392.0, 344.0], [481.0, 344.0], [481.0, 353.0], [392.0, 353.0]], [[23.0, 356.0], [32.0, 361.0], [27.0, 370.0], [19.0, 365.0]], [[128.0, 359.0], [227.0, 359.0], [227.0, 368.0], [128.0, 368.0]], [[223.0, 357.0], [333.0, 357.0], [333.0, 371.0], [223.0, 371.0]], [[348.0, 357.0], [445.0, 356.0], [445.0, 371.0], [348.0, 372.0]], [[20.0, 372.0], [31.0, 372.0], [31.0, 384.0], [20.0, 384.0]], [[61.0, 372.0], [328.0, 372.0], [328.0, 385.0], [61.0, 385.0]], [[63.0, 389.0], [92.0, 389.0], [92.0, 398.0], [63.0, 398.0]], [[21.0, 402.0], [31.0, 402.0], [31.0, 412.0], [21.0, 412.0]], [[23.0, 415.0], [31.0, 418.0], [26.0, 427.0], [19.0, 424.0]], [[20.0, 430.0], [31.0, 430.0], [31.0, 443.0], [20.0, 443.0]], [[105.0, 445.0], [297.0, 445.0], [297.0, 458.0], [105.0, 458.0]], [[19.0, 461.0], [27.0, 457.0], [32.0, 467.0], [24.0, 471.0]], [[105.0, 459.0], [241.0, 459.0], [241.0, 472.0], [105.0, 472.0]], [[241.0, 461.0], [301.0, 458.0], [302.0, 471.0], [242.0, 474.0]], [[17.0, 475.0], [28.0, 472.0], [31.0, 484.0], [20.0, 487.0]], [[131.0, 472.0], [235.0, 472.0], [235.0, 486.0], [131.0, 486.0]], [[129.0, 490.0], [255.0, 490.0], [255.0, 503.0], [129.0, 503.0]], [[19.0, 506.0], [28.0, 504.0], [30.0, 512.0], [21.0, 514.0]], [[20.0, 518.0], [31.0, 518.0], [31.0, 529.0], [20.0, 529.0]], [[60.0, 516.0], [201.0, 516.0], [201.0, 533.0], [60.0, 533.0]], [[63.0, 535.0], [103.0, 535.0], [103.0, 544.0], [63.0, 544.0]], [[61.0, 548.0], [233.0, 548.0], [233.0, 561.0], [61.0, 561.0]], [[61.0, 562.0], [221.0, 562.0], [221.0, 576.0], [61.0, 576.0]], [[61.0, 576.0], [152.0, 576.0], [152.0, 589.0], [61.0, 589.0]], [[168.0, 577.0], [355.0, 577.0], [355.0, 590.0], [168.0, 590.0]], [[60.0, 592.0], [257.0, 592.0], [257.0, 605.0], [60.0, 605.0]], [[63.0, 609.0], [92.0, 609.0], [92.0, 618.0], [63.0, 618.0]], [[105.0, 621.0], [353.0, 621.0], [353.0, 634.0], [105.0, 634.0]], [[131.0, 638.0], [225.0, 638.0], [225.0, 647.0], [131.0, 647.0]], [[157.0, 652.0], [188.0, 652.0], [188.0, 662.0], [157.0, 662.0]], [[20.0, 667.0], [41.0, 667.0], [41.0, 676.0], [20.0, 676.0]], [[139.0, 668.0], [172.0, 668.0], [172.0, 678.0], [139.0, 678.0]], [[187.0, 668.0], [252.0, 668.0], [252.0, 678.0], [187.0, 678.0]], [[1213.0, 682.0], [1249.0, 682.0], [1249.0, 691.0], [1213.0, 691.0]], [[37.0, 697.0], [144.0, 699.0], [144.0, 713.0], [37.0, 712.0]], [[1167.0, 701.0], [1196.0, 701.0], [1196.0, 711.0], [1167.0, 711.0]]]</t>
+          <t>[[8, 4, 19, 4, 19, 14, 8, 14], [27, 5, 94, 5, 94, 15, 27, 15], [96, 7, 132, 7, 132, 14, 96, 14], [135, 7, 157, 7, 157, 14, 135, 14], [162, 7, 193, 7, 193, 14, 162, 14], [266, 5, 299, 5, 299, 15, 266, 15], [220, 6, 245, 6, 245, 15, 220, 15], [305, 5, 325, 5, 325, 16, 305, 16], [4, 22, 74, 24, 73, 35, 3, 33], [102, 24, 148, 24, 148, 34, 102, 34], [76, 26, 103, 26, 103, 33, 76, 33], [954, 25, 994, 25, 994, 32, 954, 32], [18, 38, 72, 41, 71, 55, 17, 52], [156, 43, 167, 43, 167, 51, 156, 51], [165, 43, 250, 43, 250, 53, 165, 53], [482, 45, 561, 45, 561, 52, 482, 52], [710, 43, 758, 43, 758, 53, 710, 53], [2, 44, 13, 44, 13, 79, 2, 79], [17, 60, 94, 60, 94, 72, 17, 72], [15, 79, 34, 79, 34, 91, 15, 91], [82, 80, 148, 80, 148, 90, 82, 90], [1198, 79, 1241, 79, 1241, 89, 1198, 89], [57, 94, 67, 94, 67, 103, 57, 103], [14, 95, 28, 88, 36, 103, 21, 110], [3, 90, 14, 90, 14, 120, 3, 120], [12, 112, 28, 102, 36, 114, 20, 124], [55, 110, 73, 110, 73, 117, 55, 117], [72, 111, 181, 111, 181, 117, 72, 117], [6, 115, 15, 124, 7, 132, 0, 123], [59, 122, 175, 122, 175, 135, 59, 135], [18, 123, 32, 123, 32, 136, 18, 136], [53, 134, 184, 137, 183, 151, 52, 148], [18, 138, 32, 138, 32, 151, 18, 151], [18, 152, 32, 152, 32, 164, 18, 164], [60, 165, 147, 167, 146, 178, 59, 176], [17, 166, 33, 166, 33, 179, 17, 179], [18, 181, 32, 181, 32, 195, 18, 195], [53, 193, 159, 195, 158, 208, 52, 206], [17, 196, 33, 196, 33, 208, 17, 208], [165, 197, 240, 197, 240, 208, 165, 208], [18, 210, 32, 210, 32, 223, 18, 223], [79, 208, 434, 210, 433, 223, 78, 221], [16, 225, 34, 225, 34, 238, 16, 238], [82, 226, 118, 226, 118, 236, 82, 236], [14, 240, 30, 237, 32, 249, 16, 252], [55, 247, 62, 237, 69, 243, 61, 252], [56, 255, 168, 253, 169, 264, 57, 266], [18, 254, 32, 254, 32, 267, 18, 267], [206, 254, 370, 252, 371, 265, 207, 267], [175, 256, 209, 256, 209, 266, 175, 266], [18, 269, 31, 269, 31, 283, 18, 283], [53, 266, 446, 268, 445, 282, 52, 280], [24, 280, 34, 290, 24, 299, 15, 290], [18, 298, 32, 298, 32, 311, 18, 311], [102, 297, 199, 297, 199, 310, 102, 310], [18, 314, 32, 314, 32, 326, 18, 326], [123, 313, 290, 311, 291, 324, 124, 326], [17, 325, 34, 328, 32, 341, 15, 338], [17, 342, 34, 342, 34, 355, 17, 355], [125, 342, 369, 342, 369, 352, 125, 352], [389, 342, 484, 342, 484, 355, 389, 355], [16, 357, 34, 357, 34, 370, 16, 370], [123, 355, 333, 357, 332, 370, 122, 368], [351, 356, 444, 356, 444, 369, 351, 369], [15, 372, 29, 370, 31, 382, 17, 384], [59, 371, 329, 373, 328, 383, 58, 382], [17, 386, 32, 386, 32, 399, 17, 399], [60, 387, 95, 387, 95, 397, 60, 397], [17, 401, 32, 401, 32, 414, 17, 414], [18, 416, 31, 416, 31, 428, 18, 428], [18, 431, 32, 431, 32, 443, 18, 443], [17, 445, 34, 445, 34, 458, 17, 458], [102, 445, 299, 445, 299, 458, 102, 458], [16, 460, 34, 460, 34, 472, 16, 472], [104, 461, 238, 461, 238, 471, 104, 471], [235, 461, 301, 461, 301, 471, 235, 471], [16, 474, 34, 474, 34, 486, 16, 486], [127, 473, 233, 473, 233, 486, 127, 486], [16, 490, 32, 490, 32, 501, 16, 501], [126, 491, 253, 488, 254, 498, 127, 501], [17, 503, 32, 503, 32, 515, 17, 515], [17, 518, 33, 518, 33, 530, 17, 530], [60, 519, 200, 519, 200, 529, 60, 529], [16, 533, 34, 533, 34, 545, 16, 545], [60, 535, 107, 535, 107, 545, 60, 545], [18, 548, 33, 548, 33, 560, 18, 560], [60, 548, 232, 548, 232, 561, 60, 561], [18, 562, 33, 562, 33, 575, 18, 575], [60, 562, 221, 562, 221, 575, 60, 575], [13, 577, 35, 577, 35, 589, 13, 589], [60, 578, 352, 578, 352, 588, 60, 588], [4, 589, 12, 589, 12, 600, 4, 600], [19, 594, 32, 594, 32, 602, 19, 602], [57, 591, 259, 589, 260, 603, 58, 605], [19, 608, 32, 608, 32, 616, 19, 616], [60, 608, 96, 608, 96, 617, 60, 617], [17, 621, 34, 621, 34, 634, 17, 634], [104, 621, 178, 621, 178, 632, 104, 632], [177, 622, 348, 622, 348, 632, 177, 632], [345, 623, 398, 623, 398, 630, 345, 630], [16, 636, 34, 636, 34, 647, 16, 647], [125, 636, 225, 636, 225, 646, 125, 646], [19, 652, 68, 652, 68, 661, 19, 661], [149, 652, 219, 652, 219, 661, 149, 661], [79, 653, 143, 652, 144, 661, 80, 663], [17, 665, 45, 668, 44, 679, 16, 676], [52, 668, 127, 668, 127, 678, 52, 678], [264, 665, 310, 668, 309, 678, 263, 675], [135, 668, 174, 668, 174, 678, 135, 678], [184, 668, 252, 668, 252, 678, 184, 678], [321, 667, 365, 667, 365, 677, 321, 677], [376, 668, 417, 668, 417, 678, 376, 678], [23, 680, 657, 680, 657, 693, 23, 693], [860, 680, 1260, 680, 1260, 693, 860, 693], [9, 699, 21, 699, 21, 712, 9, 712], [55, 700, 144, 700, 144, 713, 55, 713], [234, 699, 247, 699, 247, 712, 234, 712], [1207, 694, 1233, 694, 1233, 704, 1207, 704], [1152, 700, 1201, 700, 1201, 711, 1152, 711], [1250, 698, 1264, 698, 1264, 712, 1250, 712], [1199, 705, 1243, 705, 1243, 715, 1199, 715]]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['+T', 'return false', "// console.Log'event", '// console.Log(event)', "// console.Log('event')", '716', 'videoTag.play();', '719', 'if !TextEncoder"', 'in window)){', 'A.', 'console.error("Sorry, this browser does not support TextEncoder);', '721', 'return', 'const enc:TextEncoder', '=new TextEncoder// aLways utf-8', '//console.Log(enc.encode(*This is a string converted to a Uint8Array"));', '25', '726', 'if (event.data{', '27', '//console.Log(atob(event.data))', '728', '729', '//Let videoData =enc.encode(atob(event.data))', '1/.arrayBuffer', '15', 'Let videoData :string', 'g= atob(event.data)', '//.arrayBuffer)', '731', 'videoSourceBuffer.appendBuffer(atob(event.data) );', 'returr', '33', '3', '735', '// prepend header to blob video data', '3', 'const bLobsCombined:Blob', '=new Blob', '73', 'blobParts [videoData],', 'options:{type:mimeCodec}', '4', '741', 'console.Log(bLobsConbined)', '/returr', "console.Log('videoSourceBuffer')", 'console.Log(videoSourceBuffer)', 'Let buff :ArrayBuffe', '=await blobsConbined.arrayBuffer()', 'videoSourceBuffer.appendBuffer(buff);', 'returr', 'bLobscombined.arrayBuffer().then(async strean:', 'onsole.Log(stream)', 'onMedia', 'Git', ' TODO', ' Python Console', 'mas', 'Type here to search', '40']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[[[900.0, 60.0], [1019.0, 60.0], [1019.0, 73.0], [900.0, 73.0]], [[84.0, 78.0], [147.0, 78.0], [147.0, 91.0], [84.0, 91.0]], [[56.0, 107.0], [181.0, 107.0], [181.0, 120.0], [56.0, 120.0]], [[59.0, 120.0], [173.0, 122.0], [173.0, 136.0], [59.0, 135.0]], [[56.0, 138.0], [183.0, 138.0], [183.0, 151.0], [56.0, 151.0]], [[17.0, 152.0], [31.0, 152.0], [31.0, 163.0], [17.0, 163.0]], [[61.0, 167.0], [147.0, 167.0], [147.0, 180.0], [61.0, 180.0]], [[17.0, 196.0], [32.0, 196.0], [32.0, 208.0], [17.0, 208.0]], [[57.0, 195.0], [164.0, 195.0], [164.0, 208.0], [57.0, 208.0]], [[161.0, 195.0], [240.0, 195.0], [240.0, 208.0], [161.0, 208.0]], [[25.0, 208.0], [19.0, 214.0], [32.0, 216.0], [26.0, 222.0]], [[80.0, 209.0], [435.0, 209.0], [435.0, 226.0], [80.0, 226.0]], [[19.0, 226.0], [32.0, 226.0], [32.0, 237.0], [19.0, 237.0]], [[84.0, 228.0], [115.0, 228.0], [115.0, 237.0], [84.0, 237.0]], [[19.0, 242.0], [28.0, 240.0], [30.0, 248.0], [21.0, 250.0]], [[63.0, 253.0], [179.0, 253.0], [179.0, 266.0], [63.0, 266.0]], [[173.0, 254.0], [371.0, 254.0], [371.0, 267.0], [173.0, 267.0]], [[19.0, 285.0], [31.0, 285.0], [31.0, 295.0], [19.0, 295.0]], [[20.0, 299.0], [31.0, 299.0], [31.0, 311.0], [20.0, 311.0]], [[104.0, 298.0], [197.0, 298.0], [197.0, 311.0], [104.0, 311.0]], [[20.0, 315.0], [31.0, 315.0], [31.0, 327.0], [20.0, 327.0]], [[124.0, 312.0], [292.0, 311.0], [292.0, 326.0], [124.0, 327.0]], [[20.0, 326.0], [31.0, 326.0], [31.0, 341.0], [20.0, 341.0]], [[19.0, 341.0], [31.0, 341.0], [31.0, 353.0], [19.0, 353.0]], [[127.0, 341.0], [372.0, 341.0], [372.0, 355.0], [127.0, 355.0]], [[392.0, 344.0], [481.0, 344.0], [481.0, 353.0], [392.0, 353.0]], [[127.0, 357.0], [333.0, 357.0], [333.0, 371.0], [127.0, 371.0]], [[348.0, 357.0], [445.0, 356.0], [445.0, 371.0], [348.0, 372.0]], [[19.0, 372.0], [31.0, 372.0], [31.0, 384.0], [19.0, 384.0]], [[61.0, 372.0], [328.0, 372.0], [328.0, 385.0], [61.0, 385.0]], [[63.0, 389.0], [92.0, 389.0], [92.0, 398.0], [63.0, 398.0]], [[21.0, 402.0], [31.0, 402.0], [31.0, 412.0], [21.0, 412.0]], [[23.0, 415.0], [31.0, 418.0], [26.0, 427.0], [19.0, 424.0]], [[20.0, 430.0], [31.0, 430.0], [31.0, 443.0], [20.0, 443.0]], [[105.0, 445.0], [297.0, 445.0], [297.0, 458.0], [105.0, 458.0]], [[19.0, 462.0], [29.0, 458.0], [33.0, 467.0], [24.0, 472.0]], [[105.0, 459.0], [243.0, 459.0], [243.0, 472.0], [105.0, 472.0]], [[240.0, 459.0], [301.0, 459.0], [301.0, 472.0], [240.0, 472.0]], [[131.0, 472.0], [235.0, 472.0], [235.0, 486.0], [131.0, 486.0]], [[128.0, 488.0], [255.0, 487.0], [255.0, 502.0], [128.0, 503.0]], [[20.0, 518.0], [31.0, 518.0], [31.0, 529.0], [20.0, 529.0]], [[60.0, 516.0], [203.0, 516.0], [203.0, 533.0], [60.0, 533.0]], [[63.0, 535.0], [103.0, 535.0], [103.0, 544.0], [63.0, 544.0]], [[21.0, 551.0], [29.0, 551.0], [29.0, 557.0], [21.0, 557.0]], [[61.0, 548.0], [233.0, 548.0], [233.0, 561.0], [61.0, 561.0]], [[61.0, 562.0], [221.0, 562.0], [221.0, 576.0], [61.0, 576.0]], [[61.0, 576.0], [163.0, 576.0], [163.0, 589.0], [61.0, 589.0]], [[168.0, 577.0], [355.0, 577.0], [355.0, 590.0], [168.0, 590.0]], [[60.0, 592.0], [259.0, 592.0], [259.0, 605.0], [60.0, 605.0]], [[63.0, 609.0], [92.0, 609.0], [92.0, 618.0], [63.0, 618.0]], [[105.0, 621.0], [360.0, 621.0], [360.0, 634.0], [105.0, 634.0]], [[131.0, 638.0], [225.0, 638.0], [225.0, 647.0], [131.0, 647.0]], [[117.0, 654.0], [141.0, 654.0], [141.0, 663.0], [117.0, 663.0]], [[156.0, 652.0], [188.0, 652.0], [188.0, 662.0], [156.0, 662.0]], [[20.0, 667.0], [41.0, 667.0], [41.0, 676.0], [20.0, 676.0]], [[139.0, 668.0], [172.0, 668.0], [172.0, 678.0], [139.0, 678.0]], [[187.0, 668.0], [252.0, 668.0], [252.0, 678.0], [187.0, 678.0]], [[1213.0, 682.0], [1249.0, 682.0], [1249.0, 691.0], [1213.0, 691.0]], [[37.0, 697.0], [144.0, 699.0], [144.0, 713.0], [37.0, 712.0]], [[1167.0, 701.0], [1196.0, 701.0], [1196.0, 711.0], [1167.0, 711.0]]]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['+T', 'return false', "// console.Log'event", '// console.Log(event)', "// console.Log'event')", '716', 'videoTag.play();', '719', 'if !TextEncoder"', 'in window)){', 'A.', 'console.error("Sorry, this browser does not support TextEncoder);', '721', 'return', '72', 'const enc:TextEncoder', '=new TextEncoder//aLways utf-8', '725', '726', 'if (event.data{', '27', '//console.Log(atob(event.data)', '728', '729', '//Let videoData =enc.encode(atob(event.data))', '1/.arrayBuffer', 'Let videoData : string = atob(event.data)', '.arrayBuffer)', '731', 'videoSourceBuffer.appendBuffer(atob(event.data));', 'returr', '33', '3', '735', '// prepend header to blob video data', '32', 'const bLobsCombined :Blob', '=new BLob', 'blobParts [videoData],', 'options{type:mimeCodec}', '741', 'console.Log(bLobsConbined)', '/returr', '4', "console.Log('videoSourceBuffer')", 'console.Log(videoSourceBuffer)', 'Let buff : ArrayBuffer', '=await blobsConbined.arrayBuffer()', 'videoSourceBuffer.appendBuffer(buff);', 'returr', 'blobsCombined.arrayBuffer().then(async strean:A', 'onsole.Log(stream)', 'ous&gt; ()', 'onMedia', 'Git', ' TODO', ' Python Console', 'mas', 'Type here to search', '40']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[[[899.0, 58.0], [1019.0, 60.0], [1019.0, 73.0], [899.0, 71.0]], [[84.0, 78.0], [147.0, 78.0], [147.0, 91.0], [84.0, 91.0]], [[59.0, 120.0], [173.0, 122.0], [173.0, 136.0], [59.0, 135.0]], [[56.0, 138.0], [183.0, 138.0], [183.0, 151.0], [56.0, 151.0]], [[61.0, 167.0], [147.0, 167.0], [147.0, 180.0], [61.0, 180.0]], [[17.0, 196.0], [32.0, 196.0], [32.0, 208.0], [17.0, 208.0]], [[56.0, 195.0], [167.0, 195.0], [167.0, 208.0], [56.0, 208.0]], [[161.0, 195.0], [240.0, 195.0], [240.0, 208.0], [161.0, 208.0]], [[25.0, 208.0], [19.0, 214.0], [32.0, 216.0], [26.0, 222.0]], [[80.0, 209.0], [435.0, 209.0], [435.0, 226.0], [80.0, 226.0]], [[16.0, 228.0], [28.0, 222.0], [33.0, 235.0], [21.0, 240.0]], [[85.0, 228.0], [115.0, 228.0], [115.0, 237.0], [85.0, 237.0]], [[63.0, 253.0], [172.0, 253.0], [172.0, 266.0], [63.0, 266.0]], [[173.0, 254.0], [371.0, 254.0], [371.0, 267.0], [173.0, 267.0]], [[19.0, 285.0], [31.0, 285.0], [31.0, 295.0], [19.0, 295.0]], [[23.0, 298.0], [32.0, 302.0], [27.0, 311.0], [19.0, 307.0]], [[104.0, 298.0], [197.0, 298.0], [197.0, 311.0], [104.0, 311.0]], [[20.0, 315.0], [31.0, 315.0], [31.0, 327.0], [20.0, 327.0]], [[124.0, 312.0], [292.0, 311.0], [292.0, 326.0], [124.0, 327.0]], [[20.0, 326.0], [31.0, 326.0], [31.0, 341.0], [20.0, 341.0]], [[19.0, 341.0], [31.0, 341.0], [31.0, 353.0], [19.0, 353.0]], [[127.0, 341.0], [372.0, 341.0], [372.0, 355.0], [127.0, 355.0]], [[393.0, 344.0], [481.0, 344.0], [481.0, 353.0], [393.0, 353.0]], [[23.0, 356.0], [32.0, 361.0], [27.0, 370.0], [19.0, 365.0]], [[127.0, 357.0], [333.0, 357.0], [333.0, 371.0], [127.0, 371.0]], [[351.0, 359.0], [445.0, 359.0], [445.0, 372.0], [351.0, 372.0]], [[61.0, 372.0], [328.0, 372.0], [328.0, 385.0], [61.0, 385.0]], [[63.0, 389.0], [92.0, 389.0], [92.0, 398.0], [63.0, 398.0]], [[21.0, 402.0], [31.0, 402.0], [31.0, 412.0], [21.0, 412.0]], [[20.0, 416.0], [31.0, 416.0], [31.0, 428.0], [20.0, 428.0]], [[20.0, 430.0], [31.0, 430.0], [31.0, 443.0], [20.0, 443.0]], [[105.0, 445.0], [297.0, 445.0], [297.0, 458.0], [105.0, 458.0]], [[19.0, 462.0], [29.0, 458.0], [33.0, 467.0], [24.0, 472.0]], [[105.0, 459.0], [243.0, 459.0], [243.0, 472.0], [105.0, 472.0]], [[240.0, 459.0], [301.0, 459.0], [301.0, 472.0], [240.0, 472.0]], [[131.0, 472.0], [235.0, 472.0], [235.0, 486.0], [131.0, 486.0]], [[129.0, 490.0], [255.0, 490.0], [255.0, 503.0], [129.0, 503.0]], [[20.0, 518.0], [31.0, 518.0], [31.0, 529.0], [20.0, 529.0]], [[60.0, 516.0], [203.0, 516.0], [203.0, 533.0], [60.0, 533.0]], [[63.0, 535.0], [103.0, 535.0], [103.0, 544.0], [63.0, 544.0]], [[61.0, 548.0], [233.0, 548.0], [233.0, 561.0], [61.0, 561.0]], [[61.0, 562.0], [221.0, 562.0], [221.0, 576.0], [61.0, 576.0]], [[61.0, 576.0], [163.0, 576.0], [163.0, 589.0], [61.0, 589.0]], [[168.0, 577.0], [355.0, 577.0], [355.0, 590.0], [168.0, 590.0]], [[60.0, 592.0], [259.0, 592.0], [259.0, 605.0], [60.0, 605.0]], [[63.0, 609.0], [92.0, 609.0], [92.0, 618.0], [63.0, 618.0]], [[105.0, 621.0], [360.0, 621.0], [360.0, 634.0], [105.0, 634.0]], [[131.0, 638.0], [225.0, 638.0], [225.0, 647.0], [131.0, 647.0]], [[157.0, 652.0], [188.0, 652.0], [188.0, 662.0], [157.0, 662.0]], [[20.0, 667.0], [41.0, 667.0], [41.0, 676.0], [20.0, 676.0]], [[139.0, 668.0], [173.0, 668.0], [173.0, 678.0], [139.0, 678.0]], [[187.0, 668.0], [252.0, 668.0], [252.0, 678.0], [187.0, 678.0]], [[1213.0, 682.0], [1249.0, 682.0], [1249.0, 691.0], [1213.0, 691.0]], [[37.0, 697.0], [144.0, 699.0], [144.0, 713.0], [37.0, 712.0]], [[1167.0, 701.0], [1196.0, 701.0], [1196.0, 711.0], [1167.0, 711.0]]]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['+T', 'return false', '// console.Log(event)', "// console.Log('event)", 'videoTag.play();', '719', 'if !TextEncoder"', 'in window)){', 'A.', 'console.error("Sorry, this browser does not support TextEncoder);', '721', 'return', 'const enc:TextEncoder', '=new TextEncoder//aLways utf-8', '725', '2', 'if (event.data{', '27', '//console.Log(atob(event.data))', '728', '729', '//Let videoData =enc.encode(atob(event.data))', '//.arrayBuffer', '15', 'Let videoData : string = atob(event.data)', '77.arrayBuffer()', 'videoSourceBuffer.appendBuffer(atob(event.data) );', 'returr', '33', '734', '735', '// prepend header to blob video data', '32', 'const bLobsCombined :Blob', '=new BLob', 'blobParts [videoData],', 'options:{type: mimeCodec}', '741', 'console.Log(bLobsConbined)', '/returr', "console.Log('videoSourceBuffer')", 'console.Log(videoSourceBuffer)', 'Let buff : ArrayBuffer', '=await blobsConbined.arrayBuffer()', 'videoSourceBuffer.appendBuffer(buff);', 'returr', 'blobsCombined.arrayBuffer().then(async strean:A', 'onsole.Log(stream)', 'onMedia', 'Git', ' TODO', ' Python Console', ' mas', 'Type here to search', '40']</t>
+          <t>[['图'], ['Eile Edit Yiew'], ['Niavigabe'], ['Code'], ['Belactor'], ['Window'], ['Iools'], ['Help'], ['screen-recording'], ['assets js)'], ['waw'], ['Current File'], ['a indexphp'], ['2'], ['agenb-web-events.php'], ['admin-Lab-agents.php'], ['o metajson'], ['!'], ['Q- ferappendBuffe'], ['711'], ['return false'], ['30A49'], ['}'], ['2'], ['i'], ['勿'], ['C//'], ['console.LogC"event\''], ['p'], ['// console.log(event)'], ['714'], ["e// console.log('event')"], ['715'], ['716'], ['videoTag.playO;'], ['717'], ['718'], ['Cif (!("TextEncoder'], ['719'], ['in window)) {'], ['720'], ['console.error("Sorry, this bromser does not support TextEncoder*);'], ['721'], ['return'], ['722'], ['2'], ['const enc :TextEncoder'], ['723'], ['TextEncoder(); // always utf-8'], ['m new'], ['724'], ['e//console.log(enc.encode("This is a string converted to a Uint8Array"));'], ['3'], ['726'], ['if (event.data) {'], ['727'], ['//console.logcatob(event.data))'], ['728'], ['729'], ['//let videoData = enc.encode(atob(event.data))'], ['// .arrayBuffer()'], ['730'], ['let videoData :string = atob(event.data)'], ['// .arrayBuffer()'], ['731'], ['videoSourceBuffer.appendBuffer(atob(event.data));'], ['732'], ['return'], ['733'], ['734'], ['735'], ['736'], ['// prepend header to blob video data'], ['737'], ['const blobsCombined : Blob'], ['w new Blob('], ['738'], ['blehPans [videoData],'], ['739'], ['options: {type: nimeCodecl'], ['740'], ['741'], ['console.log(blobsCombined)'], ['742'], ['//return'], ['743'], ["console.logC'videoSourceBuffer')"], ['744'], ['console.log(videoSourceBuffer)'], ['745'], ['let buff :ArrayBuffer w amait blobsCombined.arrayBuffer()'], ['网'], ['746'], ['videoSourceBuffer.appendBuffer(buff);'], ['747'], ['return'], ['748'], ['blobsCombined.'], ['arrayBuffer().then(async strean'], [': ArrayBuffer'], ['749'], ['console.log(stream)'], ['DemoAdmin'], ['onMediaStreamO'], ['&lt;anonymous&gt;0'], ['p Git'], ['寒 Python Fackages'], ['O Probiems'], ['描TODO'], ['● Python Console'], ['店 Terminal'], ['OServices'], ['Code Vion ints eyalurinislow Disahing Code Vion ints may inprove peformance by reducing CPUload.// Canfgure. Dhabt hints//Dont showagain (toduy 1634)'], ['719:19(11 chars) CRLF UTF-8 4spaces Python 3.9.1 WSL (Ubuntu.cording/.very/bin/python) Pmaster'], [''], ['Type here to search'], [''], ['17:21'], ['人伊'], ['早'], ['28/04/2024']]</t>
         </is>
       </c>
     </row>
